--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Plg-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Plg-Itga9.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.044118333333333</v>
+        <v>0.7521946666666667</v>
       </c>
       <c r="N2">
-        <v>6.132355</v>
+        <v>2.256584</v>
       </c>
       <c r="O2">
-        <v>0.1776005292722278</v>
+        <v>0.07361670343069449</v>
       </c>
       <c r="P2">
-        <v>0.1776005292722278</v>
+        <v>0.0736167034306945</v>
       </c>
       <c r="Q2">
-        <v>0.03631171807333333</v>
+        <v>0.01336198605866667</v>
       </c>
       <c r="R2">
-        <v>0.32680546266</v>
+        <v>0.120257874528</v>
       </c>
       <c r="S2">
-        <v>0.1776005292722278</v>
+        <v>0.07361670343069449</v>
       </c>
       <c r="T2">
-        <v>0.1776005292722278</v>
+        <v>0.0736167034306945</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>21.177841</v>
       </c>
       <c r="O3">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022597</v>
       </c>
       <c r="P3">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022598</v>
       </c>
       <c r="Q3">
         <v>0.1254010558413333</v>
@@ -632,10 +632,10 @@
         <v>1.128609502572</v>
       </c>
       <c r="S3">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022597</v>
       </c>
       <c r="T3">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022598</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,16 +676,16 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.406242333333333</v>
+        <v>2.406242333333334</v>
       </c>
       <c r="N4">
-        <v>7.218726999999999</v>
+        <v>7.218727</v>
       </c>
       <c r="O4">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="P4">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="Q4">
         <v>0.04274448880933333</v>
@@ -694,10 +694,10 @@
         <v>0.384700399284</v>
       </c>
       <c r="S4">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="T4">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
     </row>
   </sheetData>
